--- a/CashFlow/DDOG_cashflow.xlsx
+++ b/CashFlow/DDOG_cashflow.xlsx
@@ -289,19 +289,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>6539000.0</v>
+        <v>74000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4677000.0</v>
+        <v>68000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>7574000.0</v>
+        <v>53611000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-6518000.0</v>
+        <v>25602000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-3719000.0</v>
+        <v>13010000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>4330000.0</v>
